--- a/FDA Tables XLSX/Appendix 2. Estimated Calorie Needs -2020 Dietary Guidelines _ health.gov_0002.xlsx
+++ b/FDA Tables XLSX/Appendix 2. Estimated Calorie Needs -2020 Dietary Guidelines _ health.gov_0002.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sebastian/Documents/GitHub/Data Visualization Bootcamp/Sebastian Homework/Group Project - 1/Healthy-Restaurants/FDA Tables XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4185EF-2D73-9A4D-B6FF-4A66C5DC8CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119DCC07-55E1-CC47-BCFA-319CF7E1E9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <r>
       <rPr>
@@ -97,53 +107,11 @@
       <t>Active"’</t>
     </r>
   </si>
-  <si>
-    <t>19-20</t>
-  </si>
-  <si>
-    <t>21 -25</t>
-  </si>
-  <si>
-    <t>26-30</t>
-  </si>
-  <si>
-    <t>31-35</t>
-  </si>
-  <si>
-    <t>36-40</t>
-  </si>
-  <si>
-    <t>41-45</t>
-  </si>
-  <si>
-    <t>46-50</t>
-  </si>
-  <si>
-    <t>51-55</t>
-  </si>
-  <si>
-    <t>56-60</t>
-  </si>
-  <si>
-    <t>61-65</t>
-  </si>
-  <si>
-    <t>66-70</t>
-  </si>
-  <si>
-    <t>71-75</t>
-  </si>
-  <si>
-    <t>76 and up</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -169,10 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -414,167 +381,89 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -944,9 +833,9 @@
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.15">
@@ -978,30 +867,30 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33">
-        <v>1</v>
-      </c>
-      <c r="D3" s="33">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="32">
+      <c r="B3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11">
         <v>2</v>
       </c>
-      <c r="G3" s="33">
-        <v>1</v>
-      </c>
-      <c r="H3" s="33">
-        <v>1</v>
-      </c>
-      <c r="I3" s="33">
-        <v>1</v>
+      <c r="G3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1000</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -1009,363 +898,363 @@
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="35">
-        <v>1</v>
-      </c>
-      <c r="C4" s="35">
-        <v>1.4</v>
-      </c>
-      <c r="D4" s="35">
-        <v>1.4</v>
-      </c>
-      <c r="E4" s="34"/>
+      <c r="B4" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1400</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="F4" s="10">
         <v>3</v>
       </c>
-      <c r="G4" s="35">
-        <v>1</v>
-      </c>
-      <c r="H4" s="35">
-        <v>1.2</v>
-      </c>
-      <c r="I4" s="35">
-        <v>1.4</v>
+      <c r="G4" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1200</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1400</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="37">
-        <v>1.4</v>
-      </c>
-      <c r="D5" s="37">
-        <v>1.6</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="36">
+      <c r="B5" s="13">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1400</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
         <v>4</v>
       </c>
-      <c r="G5" s="37">
-        <v>1.2</v>
-      </c>
-      <c r="H5" s="37">
-        <v>1.4</v>
-      </c>
-      <c r="I5" s="37">
-        <v>1.4</v>
+      <c r="G5" s="13">
+        <v>1200</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1400</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1400</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="C6" s="39">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="39">
-        <v>1.6</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="38">
+      <c r="B6" s="14">
+        <v>1200</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1400</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1600</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14">
         <v>5</v>
       </c>
-      <c r="G6" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="H6" s="39">
-        <v>1.4</v>
-      </c>
-      <c r="I6" s="39">
-        <v>1.6</v>
+      <c r="G6" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1400</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1600</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="40">
+      <c r="B7" s="15">
+        <v>1400</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1600</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1800</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15">
         <v>6</v>
       </c>
-      <c r="G7" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1.6</v>
+      <c r="G7" s="15">
+        <v>1200</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1400</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1600</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="42">
-        <v>1.4</v>
-      </c>
-      <c r="C8" s="42">
-        <v>1.6</v>
-      </c>
-      <c r="D8" s="42">
-        <v>1.8</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="41">
+      <c r="B8" s="16">
+        <v>1400</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1600</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="16">
         <v>7</v>
       </c>
-      <c r="G8" s="42">
-        <v>1.2</v>
-      </c>
-      <c r="H8" s="42">
-        <v>1.6</v>
-      </c>
-      <c r="I8" s="42">
-        <v>1.8</v>
+      <c r="G8" s="16">
+        <v>1200</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1600</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1800</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="44">
-        <v>1.4</v>
-      </c>
-      <c r="C9" s="44">
-        <v>1.6</v>
-      </c>
-      <c r="D9" s="44">
-        <v>2</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="43">
+      <c r="B9" s="17">
+        <v>1400</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1600</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17">
         <v>8</v>
       </c>
-      <c r="G9" s="44">
-        <v>1.4</v>
-      </c>
-      <c r="H9" s="44">
-        <v>1.6</v>
-      </c>
-      <c r="I9" s="44">
-        <v>1.8</v>
+      <c r="G9" s="17">
+        <v>1400</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1800</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="45">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="46">
-        <v>1.6</v>
-      </c>
-      <c r="C10" s="46">
-        <v>1.8</v>
-      </c>
-      <c r="D10" s="46">
-        <v>2</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="45">
+      <c r="B10" s="18">
+        <v>1600</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1800</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18">
         <v>9</v>
       </c>
-      <c r="G10" s="46">
-        <v>1.4</v>
-      </c>
-      <c r="H10" s="46">
-        <v>1.6</v>
-      </c>
-      <c r="I10" s="46">
-        <v>1.8</v>
+      <c r="G10" s="18">
+        <v>1400</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1600</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1800</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="48">
-        <v>1.6</v>
-      </c>
-      <c r="C11" s="48">
-        <v>1.8</v>
-      </c>
-      <c r="D11" s="48">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="47">
+      <c r="B11" s="19">
+        <v>1600</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1800</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2200</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="19">
         <v>10</v>
       </c>
-      <c r="G11" s="48">
-        <v>1.4</v>
-      </c>
-      <c r="H11" s="48">
-        <v>1.8</v>
-      </c>
-      <c r="I11" s="48">
-        <v>2</v>
+      <c r="G11" s="19">
+        <v>1400</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1800</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2000</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="50">
-        <v>1.8</v>
-      </c>
-      <c r="C12" s="50">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="49">
+      <c r="B12" s="20">
+        <v>1800</v>
+      </c>
+      <c r="C12" s="20">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20">
         <v>11</v>
       </c>
-      <c r="G12" s="50">
-        <v>1.6</v>
-      </c>
-      <c r="H12" s="50">
-        <v>1.8</v>
-      </c>
-      <c r="I12" s="50">
-        <v>2</v>
+      <c r="G12" s="20">
+        <v>1600</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1800</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2000</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="52">
-        <v>1.8</v>
-      </c>
-      <c r="C13" s="52">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D13" s="52">
-        <v>2.4</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="51">
+      <c r="B13" s="21">
+        <v>1800</v>
+      </c>
+      <c r="C13" s="21">
+        <v>2200</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2400</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="21">
         <v>12</v>
       </c>
-      <c r="G13" s="52">
-        <v>1.6</v>
-      </c>
-      <c r="H13" s="52">
-        <v>2</v>
-      </c>
-      <c r="I13" s="52">
-        <v>2.2000000000000002</v>
+      <c r="G13" s="21">
+        <v>1600</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="21">
+        <v>2200</v>
       </c>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="54">
-        <v>2</v>
-      </c>
-      <c r="C14" s="54">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D14" s="54">
-        <v>2.6</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="53">
+      <c r="B14" s="22">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="22">
+        <v>2200</v>
+      </c>
+      <c r="D14" s="22">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="22">
         <v>13</v>
       </c>
-      <c r="G14" s="54">
-        <v>1.6</v>
-      </c>
-      <c r="H14" s="54">
-        <v>2</v>
-      </c>
-      <c r="I14" s="54">
-        <v>2.2000000000000002</v>
+      <c r="G14" s="22">
+        <v>1600</v>
+      </c>
+      <c r="H14" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="22">
+        <v>2200</v>
       </c>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="56">
-        <v>2</v>
-      </c>
-      <c r="C15" s="56">
-        <v>2.4</v>
-      </c>
-      <c r="D15" s="56">
-        <v>2.8</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="55">
+      <c r="B15" s="23">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="23">
+        <v>2400</v>
+      </c>
+      <c r="D15" s="23">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="23">
         <v>14</v>
       </c>
-      <c r="G15" s="56">
-        <v>1.8</v>
-      </c>
-      <c r="H15" s="56">
-        <v>2</v>
-      </c>
-      <c r="I15" s="56">
-        <v>2.4</v>
+      <c r="G15" s="23">
+        <v>1800</v>
+      </c>
+      <c r="H15" s="23">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="23">
+        <v>2400</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="58">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C16" s="58">
-        <v>2.6</v>
-      </c>
-      <c r="D16" s="58">
-        <v>3</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="57">
+      <c r="B16" s="24">
+        <v>2200</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2600</v>
+      </c>
+      <c r="D16" s="24">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="24">
         <v>15</v>
       </c>
-      <c r="G16" s="58">
-        <v>1.8</v>
-      </c>
-      <c r="H16" s="58">
-        <v>2</v>
-      </c>
-      <c r="I16" s="58">
-        <v>2.4</v>
+      <c r="G16" s="24">
+        <v>1800</v>
+      </c>
+      <c r="H16" s="24">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="24">
+        <v>2400</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -1373,55 +1262,55 @@
       <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="59">
-        <v>2.4</v>
-      </c>
-      <c r="C17" s="59">
-        <v>2.8</v>
-      </c>
-      <c r="D17" s="59">
-        <v>3.2</v>
-      </c>
-      <c r="E17" s="34"/>
+      <c r="B17" s="9">
+        <v>2400</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2800</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="9">
         <v>16</v>
       </c>
-      <c r="G17" s="59">
-        <v>1.8</v>
-      </c>
-      <c r="H17" s="59">
-        <v>2</v>
-      </c>
-      <c r="I17" s="59">
-        <v>2.4</v>
+      <c r="G17" s="9">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2400</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="33">
-        <v>2.4</v>
-      </c>
-      <c r="C18" s="33">
-        <v>2.8</v>
-      </c>
-      <c r="D18" s="33">
-        <v>3.2</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="32">
+      <c r="B18" s="11">
+        <v>2400</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2800</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3200</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11">
         <v>17</v>
       </c>
-      <c r="G18" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="H18" s="33">
-        <v>2</v>
-      </c>
-      <c r="I18" s="33">
-        <v>2.4</v>
+      <c r="G18" s="11">
+        <v>1800</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="11">
+        <v>2400</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -1429,388 +1318,1604 @@
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="35">
-        <v>2.4</v>
-      </c>
-      <c r="C19" s="35">
-        <v>2.8</v>
-      </c>
-      <c r="D19" s="35">
-        <v>3.2</v>
-      </c>
-      <c r="E19" s="34"/>
+      <c r="B19" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2800</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3200</v>
+      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="10">
         <v>18</v>
       </c>
-      <c r="G19" s="35">
-        <v>1.8</v>
-      </c>
-      <c r="H19" s="35">
-        <v>2</v>
-      </c>
-      <c r="I19" s="35">
-        <v>2.4</v>
+      <c r="G19" s="10">
+        <v>1800</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2400</v>
       </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="37">
-        <v>2.6</v>
-      </c>
-      <c r="C20" s="37">
-        <v>2.8</v>
-      </c>
-      <c r="D20" s="37">
-        <v>3</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="37">
-        <v>2</v>
-      </c>
-      <c r="H20" s="37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I20" s="37">
-        <v>2.4</v>
+      <c r="A20" s="24">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2600</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2800</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="24">
+        <v>19</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="13">
+        <v>2200</v>
+      </c>
+      <c r="I20" s="13">
+        <v>2400</v>
       </c>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="39">
-        <v>2.4</v>
-      </c>
-      <c r="C21" s="39">
-        <v>2.8</v>
-      </c>
-      <c r="D21" s="39">
-        <v>3</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="39">
-        <v>2</v>
-      </c>
-      <c r="H21" s="39">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I21" s="39">
-        <v>2.4</v>
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13">
+        <v>2600</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2800</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9">
+        <v>20</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2200</v>
+      </c>
+      <c r="I21" s="13">
+        <v>2400</v>
       </c>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="29.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="D22" s="12">
-        <v>3</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="H22" s="12">
-        <v>2</v>
-      </c>
-      <c r="I22" s="12">
-        <v>2.4</v>
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14">
+        <v>2400</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2800</v>
+      </c>
+      <c r="D22" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11">
+        <v>21</v>
+      </c>
+      <c r="G22" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2200</v>
+      </c>
+      <c r="I22" s="14">
+        <v>2400</v>
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
-        <v>9</v>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>22</v>
       </c>
       <c r="B23" s="14">
-        <v>2.4</v>
+        <v>2400</v>
       </c>
       <c r="C23" s="14">
-        <v>2.6</v>
+        <v>2800</v>
       </c>
       <c r="D23" s="14">
-        <v>3</v>
-      </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="13" t="s">
-        <v>9</v>
+        <v>3000</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="10">
+        <v>22</v>
       </c>
       <c r="G23" s="14">
-        <v>1.8</v>
+        <v>2000</v>
       </c>
       <c r="H23" s="14">
-        <v>2</v>
+        <v>2200</v>
       </c>
       <c r="I23" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="C24" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="D24" s="15">
-        <v>2.8</v>
-      </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="H24" s="15">
-        <v>2</v>
-      </c>
-      <c r="I24" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C25" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="D25" s="18">
-        <v>2.8</v>
-      </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="H25" s="18">
-        <v>2</v>
-      </c>
-      <c r="I25" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A26" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C26" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="D26" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="H26" s="19">
-        <v>2</v>
-      </c>
-      <c r="I26" s="19">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A27" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C27" s="21">
-        <v>2.4</v>
-      </c>
-      <c r="D27" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="H27" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="I27" s="21">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A28" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="23">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C28" s="23">
-        <v>2.4</v>
-      </c>
-      <c r="D28" s="23">
-        <v>2.6</v>
-      </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="H28" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="I28" s="23">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="25">
-        <v>2</v>
-      </c>
-      <c r="C29" s="25">
-        <v>2.4</v>
-      </c>
-      <c r="D29" s="25">
-        <v>2.6</v>
-      </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="25">
-        <v>1.6</v>
-      </c>
-      <c r="H29" s="25">
-        <v>1.8</v>
-      </c>
-      <c r="I29" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="27">
-        <v>2</v>
-      </c>
-      <c r="C30" s="27">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D30" s="27">
-        <v>2.6</v>
-      </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="27">
-        <v>1.6</v>
-      </c>
-      <c r="H30" s="27">
-        <v>1.8</v>
-      </c>
-      <c r="I30" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A31" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="28">
-        <v>2</v>
-      </c>
-      <c r="C31" s="28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D31" s="28">
-        <v>2.6</v>
-      </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="28">
-        <v>1.6</v>
-      </c>
-      <c r="H31" s="28">
-        <v>1.8</v>
-      </c>
-      <c r="I31" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A32" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="31">
-        <v>2</v>
-      </c>
-      <c r="C32" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D32" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="31">
-        <v>1.6</v>
-      </c>
-      <c r="H32" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="I32" s="31">
-        <v>2</v>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>2400</v>
+      </c>
+      <c r="C24" s="14">
+        <v>2800</v>
+      </c>
+      <c r="D24" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="24">
+        <v>23</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2200</v>
+      </c>
+      <c r="I24" s="14">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2400</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2800</v>
+      </c>
+      <c r="D25" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="9">
+        <v>24</v>
+      </c>
+      <c r="G25" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="14">
+        <v>2200</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>2400</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2800</v>
+      </c>
+      <c r="D26" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11">
+        <v>25</v>
+      </c>
+      <c r="G26" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H26" s="14">
+        <v>2200</v>
+      </c>
+      <c r="I26" s="14">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15">
+        <v>2400</v>
+      </c>
+      <c r="C27" s="15">
+        <v>2600</v>
+      </c>
+      <c r="D27" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10">
+        <v>26</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1800</v>
+      </c>
+      <c r="H27" s="15">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="15">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A28" s="24">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15">
+        <v>2400</v>
+      </c>
+      <c r="C28" s="15">
+        <v>2600</v>
+      </c>
+      <c r="D28" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="24">
+        <v>27</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1800</v>
+      </c>
+      <c r="H28" s="15">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="15">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2400</v>
+      </c>
+      <c r="C29" s="15">
+        <v>2600</v>
+      </c>
+      <c r="D29" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="9">
+        <v>28</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1800</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2000</v>
+      </c>
+      <c r="I29" s="15">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2400</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2600</v>
+      </c>
+      <c r="D30" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11">
+        <v>29</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1800</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2000</v>
+      </c>
+      <c r="I30" s="15">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2400</v>
+      </c>
+      <c r="C31" s="15">
+        <v>2600</v>
+      </c>
+      <c r="D31" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="10">
+        <v>30</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1800</v>
+      </c>
+      <c r="H31" s="15">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="15">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A32" s="24">
+        <v>31</v>
+      </c>
+      <c r="B32" s="27">
+        <v>2400</v>
+      </c>
+      <c r="C32" s="27">
+        <v>2600</v>
+      </c>
+      <c r="D32" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24">
+        <v>31</v>
+      </c>
+      <c r="G32" s="27">
+        <v>1800</v>
+      </c>
+      <c r="H32" s="27">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="27">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="27">
+        <v>2400</v>
+      </c>
+      <c r="C33" s="27">
+        <v>2600</v>
+      </c>
+      <c r="D33" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="9">
+        <v>32</v>
+      </c>
+      <c r="G33" s="27">
+        <v>1800</v>
+      </c>
+      <c r="H33" s="27">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="27">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="27">
+        <v>2400</v>
+      </c>
+      <c r="C34" s="27">
+        <v>2600</v>
+      </c>
+      <c r="D34" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="11">
+        <v>33</v>
+      </c>
+      <c r="G34" s="27">
+        <v>1800</v>
+      </c>
+      <c r="H34" s="27">
+        <v>2000</v>
+      </c>
+      <c r="I34" s="27">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="27">
+        <v>2400</v>
+      </c>
+      <c r="C35" s="27">
+        <v>2600</v>
+      </c>
+      <c r="D35" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="10">
+        <v>34</v>
+      </c>
+      <c r="G35" s="27">
+        <v>1800</v>
+      </c>
+      <c r="H35" s="27">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="27">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A36" s="24">
+        <v>35</v>
+      </c>
+      <c r="B36" s="27">
+        <v>2400</v>
+      </c>
+      <c r="C36" s="27">
+        <v>2600</v>
+      </c>
+      <c r="D36" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="24">
+        <v>35</v>
+      </c>
+      <c r="G36" s="27">
+        <v>1800</v>
+      </c>
+      <c r="H36" s="27">
+        <v>2000</v>
+      </c>
+      <c r="I36" s="27">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="28">
+        <v>2400</v>
+      </c>
+      <c r="C37" s="28">
+        <v>2600</v>
+      </c>
+      <c r="D37" s="28">
+        <v>2800</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="9">
+        <v>36</v>
+      </c>
+      <c r="G37" s="28">
+        <v>1800</v>
+      </c>
+      <c r="H37" s="28">
+        <v>2000</v>
+      </c>
+      <c r="I37" s="28">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="28">
+        <v>2400</v>
+      </c>
+      <c r="C38" s="28">
+        <v>2600</v>
+      </c>
+      <c r="D38" s="28">
+        <v>2800</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="11">
+        <v>37</v>
+      </c>
+      <c r="G38" s="28">
+        <v>1800</v>
+      </c>
+      <c r="H38" s="28">
+        <v>2000</v>
+      </c>
+      <c r="I38" s="28">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="28">
+        <v>2400</v>
+      </c>
+      <c r="C39" s="28">
+        <v>2600</v>
+      </c>
+      <c r="D39" s="28">
+        <v>2800</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="10">
+        <v>38</v>
+      </c>
+      <c r="G39" s="28">
+        <v>1800</v>
+      </c>
+      <c r="H39" s="28">
+        <v>2000</v>
+      </c>
+      <c r="I39" s="28">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A40" s="24">
+        <v>39</v>
+      </c>
+      <c r="B40" s="28">
+        <v>2400</v>
+      </c>
+      <c r="C40" s="28">
+        <v>2600</v>
+      </c>
+      <c r="D40" s="28">
+        <v>2800</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="24">
+        <v>39</v>
+      </c>
+      <c r="G40" s="28">
+        <v>1800</v>
+      </c>
+      <c r="H40" s="28">
+        <v>2000</v>
+      </c>
+      <c r="I40" s="28">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="28">
+        <v>2400</v>
+      </c>
+      <c r="C41" s="28">
+        <v>2600</v>
+      </c>
+      <c r="D41" s="28">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="9">
+        <v>40</v>
+      </c>
+      <c r="G41" s="28">
+        <v>1800</v>
+      </c>
+      <c r="H41" s="28">
+        <v>2000</v>
+      </c>
+      <c r="I41" s="28">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="29">
+        <v>2200</v>
+      </c>
+      <c r="C42" s="29">
+        <v>2600</v>
+      </c>
+      <c r="D42" s="29">
+        <v>2800</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="11">
+        <v>41</v>
+      </c>
+      <c r="G42" s="29">
+        <v>1800</v>
+      </c>
+      <c r="H42" s="29">
+        <v>2000</v>
+      </c>
+      <c r="I42" s="29">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="29">
+        <v>2200</v>
+      </c>
+      <c r="C43" s="29">
+        <v>2600</v>
+      </c>
+      <c r="D43" s="29">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="10">
+        <v>42</v>
+      </c>
+      <c r="G43" s="29">
+        <v>1800</v>
+      </c>
+      <c r="H43" s="29">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="29">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A44" s="24">
+        <v>43</v>
+      </c>
+      <c r="B44" s="29">
+        <v>2200</v>
+      </c>
+      <c r="C44" s="29">
+        <v>2600</v>
+      </c>
+      <c r="D44" s="29">
+        <v>2800</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="24">
+        <v>43</v>
+      </c>
+      <c r="G44" s="29">
+        <v>1800</v>
+      </c>
+      <c r="H44" s="29">
+        <v>2000</v>
+      </c>
+      <c r="I44" s="29">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="29">
+        <v>2200</v>
+      </c>
+      <c r="C45" s="29">
+        <v>2600</v>
+      </c>
+      <c r="D45" s="29">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="9">
+        <v>44</v>
+      </c>
+      <c r="G45" s="29">
+        <v>1800</v>
+      </c>
+      <c r="H45" s="29">
+        <v>2000</v>
+      </c>
+      <c r="I45" s="29">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="29">
+        <v>2200</v>
+      </c>
+      <c r="C46" s="29">
+        <v>2600</v>
+      </c>
+      <c r="D46" s="29">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="11">
+        <v>45</v>
+      </c>
+      <c r="G46" s="29">
+        <v>1800</v>
+      </c>
+      <c r="H46" s="29">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="29">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="30">
+        <v>2200</v>
+      </c>
+      <c r="C47" s="30">
+        <v>2400</v>
+      </c>
+      <c r="D47" s="30">
+        <v>2800</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="10">
+        <v>46</v>
+      </c>
+      <c r="G47" s="30">
+        <v>1800</v>
+      </c>
+      <c r="H47" s="30">
+        <v>2000</v>
+      </c>
+      <c r="I47" s="30">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A48" s="24">
+        <v>47</v>
+      </c>
+      <c r="B48" s="30">
+        <v>2200</v>
+      </c>
+      <c r="C48" s="30">
+        <v>2400</v>
+      </c>
+      <c r="D48" s="30">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="24">
+        <v>47</v>
+      </c>
+      <c r="G48" s="30">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="30">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="30">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="30">
+        <v>2200</v>
+      </c>
+      <c r="C49" s="30">
+        <v>2400</v>
+      </c>
+      <c r="D49" s="30">
+        <v>2800</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="9">
+        <v>48</v>
+      </c>
+      <c r="G49" s="30">
+        <v>1800</v>
+      </c>
+      <c r="H49" s="30">
+        <v>2000</v>
+      </c>
+      <c r="I49" s="30">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="30">
+        <v>2200</v>
+      </c>
+      <c r="C50" s="30">
+        <v>2400</v>
+      </c>
+      <c r="D50" s="30">
+        <v>2800</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="11">
+        <v>49</v>
+      </c>
+      <c r="G50" s="30">
+        <v>1800</v>
+      </c>
+      <c r="H50" s="30">
+        <v>2000</v>
+      </c>
+      <c r="I50" s="30">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="30">
+        <v>2200</v>
+      </c>
+      <c r="C51" s="30">
+        <v>2400</v>
+      </c>
+      <c r="D51" s="30">
+        <v>2800</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="10">
+        <v>50</v>
+      </c>
+      <c r="G51" s="30">
+        <v>1800</v>
+      </c>
+      <c r="H51" s="30">
+        <v>2000</v>
+      </c>
+      <c r="I51" s="30">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A52" s="24">
+        <v>51</v>
+      </c>
+      <c r="B52" s="31">
+        <v>2200</v>
+      </c>
+      <c r="C52" s="31">
+        <v>2400</v>
+      </c>
+      <c r="D52" s="31">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="24">
+        <v>51</v>
+      </c>
+      <c r="G52" s="31">
+        <v>1600</v>
+      </c>
+      <c r="H52" s="31">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="31">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="31">
+        <v>2200</v>
+      </c>
+      <c r="C53" s="31">
+        <v>2400</v>
+      </c>
+      <c r="D53" s="31">
+        <v>2800</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="9">
+        <v>52</v>
+      </c>
+      <c r="G53" s="31">
+        <v>1600</v>
+      </c>
+      <c r="H53" s="31">
+        <v>1800</v>
+      </c>
+      <c r="I53" s="31">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="31">
+        <v>2200</v>
+      </c>
+      <c r="C54" s="31">
+        <v>2400</v>
+      </c>
+      <c r="D54" s="31">
+        <v>2800</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="11">
+        <v>53</v>
+      </c>
+      <c r="G54" s="31">
+        <v>1600</v>
+      </c>
+      <c r="H54" s="31">
+        <v>1800</v>
+      </c>
+      <c r="I54" s="31">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="31">
+        <v>2200</v>
+      </c>
+      <c r="C55" s="31">
+        <v>2400</v>
+      </c>
+      <c r="D55" s="31">
+        <v>2800</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="10">
+        <v>54</v>
+      </c>
+      <c r="G55" s="31">
+        <v>1600</v>
+      </c>
+      <c r="H55" s="31">
+        <v>1800</v>
+      </c>
+      <c r="I55" s="31">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A56" s="24">
+        <v>55</v>
+      </c>
+      <c r="B56" s="31">
+        <v>2200</v>
+      </c>
+      <c r="C56" s="31">
+        <v>2400</v>
+      </c>
+      <c r="D56" s="31">
+        <v>2800</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="24">
+        <v>55</v>
+      </c>
+      <c r="G56" s="31">
+        <v>1600</v>
+      </c>
+      <c r="H56" s="31">
+        <v>1800</v>
+      </c>
+      <c r="I56" s="31">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="32">
+        <v>2200</v>
+      </c>
+      <c r="C57" s="32">
+        <v>2400</v>
+      </c>
+      <c r="D57" s="32">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="9">
+        <v>56</v>
+      </c>
+      <c r="G57" s="32">
+        <v>1600</v>
+      </c>
+      <c r="H57" s="32">
+        <v>1800</v>
+      </c>
+      <c r="I57" s="32">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="32">
+        <v>2200</v>
+      </c>
+      <c r="C58" s="32">
+        <v>2400</v>
+      </c>
+      <c r="D58" s="32">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="11">
+        <v>57</v>
+      </c>
+      <c r="G58" s="32">
+        <v>1600</v>
+      </c>
+      <c r="H58" s="32">
+        <v>1800</v>
+      </c>
+      <c r="I58" s="32">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="32">
+        <v>2200</v>
+      </c>
+      <c r="C59" s="32">
+        <v>2400</v>
+      </c>
+      <c r="D59" s="32">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="10">
+        <v>58</v>
+      </c>
+      <c r="G59" s="32">
+        <v>1600</v>
+      </c>
+      <c r="H59" s="32">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="32">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A60" s="24">
+        <v>59</v>
+      </c>
+      <c r="B60" s="32">
+        <v>2200</v>
+      </c>
+      <c r="C60" s="32">
+        <v>2400</v>
+      </c>
+      <c r="D60" s="32">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="24">
+        <v>59</v>
+      </c>
+      <c r="G60" s="32">
+        <v>1600</v>
+      </c>
+      <c r="H60" s="32">
+        <v>1800</v>
+      </c>
+      <c r="I60" s="32">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="32">
+        <v>2200</v>
+      </c>
+      <c r="C61" s="32">
+        <v>2400</v>
+      </c>
+      <c r="D61" s="32">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="9">
+        <v>60</v>
+      </c>
+      <c r="G61" s="32">
+        <v>1600</v>
+      </c>
+      <c r="H61" s="32">
+        <v>1800</v>
+      </c>
+      <c r="I61" s="32">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="33">
+        <v>2000</v>
+      </c>
+      <c r="C62" s="33">
+        <v>2400</v>
+      </c>
+      <c r="D62" s="33">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="11">
+        <v>61</v>
+      </c>
+      <c r="G62" s="33">
+        <v>1600</v>
+      </c>
+      <c r="H62" s="33">
+        <v>1800</v>
+      </c>
+      <c r="I62" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="33">
+        <v>2000</v>
+      </c>
+      <c r="C63" s="33">
+        <v>2400</v>
+      </c>
+      <c r="D63" s="33">
+        <v>2600</v>
+      </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="10">
+        <v>62</v>
+      </c>
+      <c r="G63" s="33">
+        <v>1600</v>
+      </c>
+      <c r="H63" s="33">
+        <v>1800</v>
+      </c>
+      <c r="I63" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A64" s="24">
+        <v>63</v>
+      </c>
+      <c r="B64" s="33">
+        <v>2000</v>
+      </c>
+      <c r="C64" s="33">
+        <v>2400</v>
+      </c>
+      <c r="D64" s="33">
+        <v>2600</v>
+      </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="24">
+        <v>63</v>
+      </c>
+      <c r="G64" s="33">
+        <v>1600</v>
+      </c>
+      <c r="H64" s="33">
+        <v>1800</v>
+      </c>
+      <c r="I64" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="33">
+        <v>2000</v>
+      </c>
+      <c r="C65" s="33">
+        <v>2400</v>
+      </c>
+      <c r="D65" s="33">
+        <v>2600</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="9">
+        <v>64</v>
+      </c>
+      <c r="G65" s="33">
+        <v>1600</v>
+      </c>
+      <c r="H65" s="33">
+        <v>1800</v>
+      </c>
+      <c r="I65" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="33">
+        <v>2000</v>
+      </c>
+      <c r="C66" s="33">
+        <v>2400</v>
+      </c>
+      <c r="D66" s="33">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="25"/>
+      <c r="F66" s="11">
+        <v>65</v>
+      </c>
+      <c r="G66" s="33">
+        <v>1600</v>
+      </c>
+      <c r="H66" s="33">
+        <v>1800</v>
+      </c>
+      <c r="I66" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A67" s="10">
+        <v>66</v>
+      </c>
+      <c r="B67" s="34">
+        <v>2000</v>
+      </c>
+      <c r="C67" s="34">
+        <v>2200</v>
+      </c>
+      <c r="D67" s="34">
+        <v>2600</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="10">
+        <v>66</v>
+      </c>
+      <c r="G67" s="34">
+        <v>1600</v>
+      </c>
+      <c r="H67" s="34">
+        <v>1800</v>
+      </c>
+      <c r="I67" s="34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A68" s="24">
+        <v>67</v>
+      </c>
+      <c r="B68" s="34">
+        <v>2000</v>
+      </c>
+      <c r="C68" s="34">
+        <v>2200</v>
+      </c>
+      <c r="D68" s="34">
+        <v>2600</v>
+      </c>
+      <c r="E68" s="25"/>
+      <c r="F68" s="24">
+        <v>67</v>
+      </c>
+      <c r="G68" s="34">
+        <v>1600</v>
+      </c>
+      <c r="H68" s="34">
+        <v>1800</v>
+      </c>
+      <c r="I68" s="34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="34">
+        <v>2000</v>
+      </c>
+      <c r="C69" s="34">
+        <v>2200</v>
+      </c>
+      <c r="D69" s="34">
+        <v>2600</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="9">
+        <v>68</v>
+      </c>
+      <c r="G69" s="34">
+        <v>1600</v>
+      </c>
+      <c r="H69" s="34">
+        <v>1800</v>
+      </c>
+      <c r="I69" s="34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="34">
+        <v>2000</v>
+      </c>
+      <c r="C70" s="34">
+        <v>2200</v>
+      </c>
+      <c r="D70" s="34">
+        <v>2600</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="11">
+        <v>69</v>
+      </c>
+      <c r="G70" s="34">
+        <v>1600</v>
+      </c>
+      <c r="H70" s="34">
+        <v>1800</v>
+      </c>
+      <c r="I70" s="34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A71" s="10">
+        <v>70</v>
+      </c>
+      <c r="B71" s="34">
+        <v>2000</v>
+      </c>
+      <c r="C71" s="34">
+        <v>2200</v>
+      </c>
+      <c r="D71" s="34">
+        <v>2600</v>
+      </c>
+      <c r="E71" s="25"/>
+      <c r="F71" s="10">
+        <v>70</v>
+      </c>
+      <c r="G71" s="34">
+        <v>1600</v>
+      </c>
+      <c r="H71" s="34">
+        <v>1800</v>
+      </c>
+      <c r="I71" s="34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A72" s="24">
+        <v>71</v>
+      </c>
+      <c r="B72" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C72" s="35">
+        <v>2200</v>
+      </c>
+      <c r="D72" s="35">
+        <v>2600</v>
+      </c>
+      <c r="E72" s="25"/>
+      <c r="F72" s="24">
+        <v>71</v>
+      </c>
+      <c r="G72" s="35">
+        <v>1600</v>
+      </c>
+      <c r="H72" s="35">
+        <v>1800</v>
+      </c>
+      <c r="I72" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C73" s="35">
+        <v>2200</v>
+      </c>
+      <c r="D73" s="35">
+        <v>2600</v>
+      </c>
+      <c r="E73" s="25"/>
+      <c r="F73" s="9">
+        <v>72</v>
+      </c>
+      <c r="G73" s="35">
+        <v>1600</v>
+      </c>
+      <c r="H73" s="35">
+        <v>1800</v>
+      </c>
+      <c r="I73" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C74" s="35">
+        <v>2200</v>
+      </c>
+      <c r="D74" s="35">
+        <v>2600</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="11">
+        <v>73</v>
+      </c>
+      <c r="G74" s="35">
+        <v>1600</v>
+      </c>
+      <c r="H74" s="35">
+        <v>1800</v>
+      </c>
+      <c r="I74" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A75" s="10">
+        <v>74</v>
+      </c>
+      <c r="B75" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C75" s="35">
+        <v>2200</v>
+      </c>
+      <c r="D75" s="35">
+        <v>2600</v>
+      </c>
+      <c r="E75" s="25"/>
+      <c r="F75" s="10">
+        <v>74</v>
+      </c>
+      <c r="G75" s="35">
+        <v>1600</v>
+      </c>
+      <c r="H75" s="35">
+        <v>1800</v>
+      </c>
+      <c r="I75" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A76" s="24">
+        <v>75</v>
+      </c>
+      <c r="B76" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C76" s="35">
+        <v>2200</v>
+      </c>
+      <c r="D76" s="35">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="25"/>
+      <c r="F76" s="24">
+        <v>75</v>
+      </c>
+      <c r="G76" s="35">
+        <v>1600</v>
+      </c>
+      <c r="H76" s="35">
+        <v>1800</v>
+      </c>
+      <c r="I76" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A77" s="38">
+        <v>76</v>
+      </c>
+      <c r="B77" s="36">
+        <v>2000</v>
+      </c>
+      <c r="C77" s="36">
+        <v>2200</v>
+      </c>
+      <c r="D77" s="36">
+        <v>2400</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="37">
+        <v>76</v>
+      </c>
+      <c r="G77" s="36">
+        <v>1600</v>
+      </c>
+      <c r="H77" s="36">
+        <v>1800</v>
+      </c>
+      <c r="I77" s="36">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>